--- a/biology/Zoologie/Dicée_à_gorge_feu/Dicée_à_gorge_feu.xlsx
+++ b/biology/Zoologie/Dicée_à_gorge_feu/Dicée_à_gorge_feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_gorge_feu</t>
+          <t>Dicée_à_gorge_feu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum ignipectus
 Le dicée à gorge feu (Dicaeum ignipectus) est une espèce de passereau placée dans la famille des Dicaeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_gorge_feu</t>
+          <t>Dicée_à_gorge_feu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit dicée avec un petit bec sombre. Le mâle a le dessus d'un bleu-noir brillant. Le dessous est chamois mais avec une tache d'un rouge vif au niveau de la gorge et juste en dessous une étroite bande noire centrale qui court en descendant jusqu'au ventre. La femelle est brun olive dessus et chamois dessous. Les côtés sont olives et le bec a une base pâle.
 Pesant seulement 7 à 9 g et mesurant moins de 7 cm de long, c'est l'un des plus petits dicées. Il  vit généralement à la cime des arbres en particulier sur les guis. Il donne régulièrement de sa voix aiguë qui a été comparée au cliquetis de ciseaux et un staccato tsit.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_gorge_feu</t>
+          <t>Dicée_à_gorge_feu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve largement répandu le long de la région sous-himalayenne en Inde, au Népal, au Bhoutan, au Bangladesh et en Asie du Sud-Est jusqu'en Chine, Indonésie, Laos, Thaïlande, Vietnam, Taiwan, Malaisie et Philippines. Ses habitats naturels sont les forêts tempérées, les forêts de plaine subtropicales ou tropicales humides et les forêts de montagne subtropicales ou tropicales humides.
 Dans l’ensemble de son aire de répartition, l’espèce est présente dans les hautes montagnes de plus de 1 000 m, mais en Chine, elle peut être trouvée en hiver à des altitudes plus basses.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_gorge_feu</t>
+          <t>Dicée_à_gorge_feu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Peterson
 Dicaeum ignipectus apo Hartert 1904
